--- a/DatabaseDiagram.xlsx
+++ b/DatabaseDiagram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5aa2a5e9f7574ee3/Desktop/LearnPython/etl-project/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5aa2a5e9f7574ee3/Desktop/LearnPython/etl-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5EF432-0CC9-409C-9EA8-FABF57FE231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{7F5EF432-0CC9-409C-9EA8-FABF57FE231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9DBB6AC-AC3F-4FF3-8A02-E4E68F388377}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{3FCABCC2-1014-4104-AEDA-0E7070C19C27}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="16920" windowHeight="10580" xr2:uid="{3FCABCC2-1014-4104-AEDA-0E7070C19C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,12 +271,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -287,6 +281,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,29 +614,30 @@
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
@@ -644,104 +645,104 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -749,103 +750,103 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F19" s="9"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F20" s="9"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F21" s="9"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F22" s="10"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DatabaseDiagram.xlsx
+++ b/DatabaseDiagram.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="8_{7F5EF432-0CC9-409C-9EA8-FABF57FE231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9DBB6AC-AC3F-4FF3-8A02-E4E68F388377}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="16920" windowHeight="10580" xr2:uid="{3FCABCC2-1014-4104-AEDA-0E7070C19C27}"/>
+    <workbookView xWindow="10260" yWindow="4250" windowWidth="16920" windowHeight="10580" xr2:uid="{3FCABCC2-1014-4104-AEDA-0E7070C19C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
